--- a/examples/reports/az-az/ChatTemplate.xlsx
+++ b/examples/reports/az-az/ChatTemplate.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Chat" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Söhbət" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Messages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message</t>
+    <t xml:space="preserve">Mesajlar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaxt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Şirkət</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İstifadəçi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesaj</t>
   </si>
   <si>
     <t xml:space="preserve">$.Messages[*].Time</t>
@@ -198,10 +198,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="40"/>
